--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_74.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,686 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4555555555555556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.302038', '0:00:06.740158')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1762820512820513</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:00:21.160000', '0:00:31.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08188405797101449</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E/7']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
+          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:38.620000', '0:00:44.060000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
